--- a/IEEE_presentations/IEEE_presentation_slides.xlsx
+++ b/IEEE_presentations/IEEE_presentation_slides.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="120" yWindow="45" windowWidth="27795" windowHeight="11580"/>
   </bookViews>
   <sheets>
-    <sheet name="IEEE talks 27" sheetId="1" r:id="rId1"/>
+    <sheet name="IEEE talks 19" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'IEEE talks 27'!$B$1:$L$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'IEEE talks 19'!$B$1:$L$35</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1227,9 +1227,9 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozenSplit"/>
       <selection sqref="A1:XFD3"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:L35"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
